--- a/test/xiang/test2.xlsx
+++ b/test/xiang/test2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="480285" yWindow="482010" windowWidth="14910" windowHeight="6060" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,7 +331,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -340,14 +341,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>